--- a/hw/A板/QCD_PowerBank_001A_V01_20170430.xlsx
+++ b/hw/A板/QCD_PowerBank_001A_V01_20170430.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\0Group\PowerBank\hw\A板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\QCD_PowerBank_001(车载杯座)\hw\A板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -163,42 +163,24 @@
     <t>R18</t>
   </si>
   <si>
-    <t>STM8S003F3</t>
-  </si>
-  <si>
-    <t>TSSOP20L</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>QFN24_PAD</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>LY8205</t>
-  </si>
-  <si>
     <t>TSSOP8</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>XC6209-3.3</t>
-  </si>
-  <si>
     <t>SOT23-5</t>
   </si>
   <si>
     <t>U21</t>
   </si>
   <si>
-    <t>9435</t>
-  </si>
-  <si>
     <t>SO8NB</t>
   </si>
   <si>
@@ -245,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TP5602</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>充电管理IC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -338,6 +316,34 @@
   </si>
   <si>
     <t>J2/深圳市丰一方光电科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP9435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM8S003F3P6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP5602B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC8205A(FM富满)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME6212C33M5G(南京微盟)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -714,14 +720,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
@@ -729,39 +735,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -770,16 +776,16 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -788,16 +794,16 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -806,16 +812,16 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -824,16 +830,16 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -842,13 +848,13 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>43</v>
@@ -860,7 +866,7 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -878,7 +884,7 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>37</v>
@@ -896,16 +902,16 @@
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -914,7 +920,7 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
@@ -923,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -932,7 +938,7 @@
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
@@ -968,7 +974,7 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -986,7 +992,7 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -995,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1022,7 +1028,7 @@
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
@@ -1031,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1">
         <v>14</v>
@@ -1040,7 +1046,7 @@
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1049,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1076,7 +1082,7 @@
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -1094,7 +1100,7 @@
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1112,13 +1118,13 @@
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -1130,7 +1136,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -1148,7 +1154,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1166,10 +1172,10 @@
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1184,7 +1190,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1202,16 +1208,16 @@
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1220,7 +1226,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -1238,10 +1244,10 @@
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
